--- a/DDF/PNG Product/SalesOrderLabel/SalesOrderLabel.xlsx
+++ b/DDF/PNG Product/SalesOrderLabel/SalesOrderLabel.xlsx
@@ -221,7 +221,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A4:L4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -373,7 +373,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A4:L4 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,21 +511,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="13.35"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -642,6 +642,7 @@
         <v>26</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
